--- a/Financials/Quarterly/IBM_QTR_FIN.xlsx
+++ b/Financials/Quarterly/IBM_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD612DA3-9EC7-4B25-ABB6-0BD3E7FEA20A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBM" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,148 +686,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21761000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18756000</v>
+      </c>
+      <c r="F8" s="3">
         <v>20003000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>19072000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>22542000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>19153000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>19289000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>18155000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>21770000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>19226000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11073000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9953000</v>
+      </c>
+      <c r="F9" s="3">
         <v>10804000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>10825000</v>
       </c>
-      <c r="F9" s="3">
-        <v>11681000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10353000</v>
-      </c>
       <c r="H9" s="3">
+        <v>11492000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10172000</v>
+      </c>
+      <c r="J9" s="3">
         <v>10320000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>10210000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>10876000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10213000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10688000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8803000</v>
+      </c>
+      <c r="F10" s="3">
         <v>9199000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8247000</v>
       </c>
-      <c r="F10" s="3">
-        <v>10861000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>8800000</v>
-      </c>
       <c r="H10" s="3">
+        <v>11050000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8981000</v>
+      </c>
+      <c r="J10" s="3">
         <v>8969000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7945000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>10894000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>9013000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -804,37 +863,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1358000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1252000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1364000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1405000</v>
       </c>
-      <c r="F12" s="3">
-        <v>1427000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1342000</v>
-      </c>
       <c r="H12" s="3">
+        <v>1378000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1291000</v>
+      </c>
+      <c r="J12" s="3">
         <v>1436000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1484000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1431000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1397000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,66 +929,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F14" s="3">
         <v>23000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>540000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>11000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>17000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>167000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>109000</v>
+        <v>106000</v>
       </c>
       <c r="E15" s="3">
         <v>110000</v>
       </c>
       <c r="F15" s="3">
+        <v>109000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>110000</v>
+      </c>
+      <c r="H15" s="3">
         <v>114000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>125000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>127000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>130000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>132000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>136000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -930,66 +1015,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>17327000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15760000</v>
+      </c>
+      <c r="F17" s="3">
         <v>17227000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>17936000</v>
       </c>
-      <c r="F17" s="3">
-        <v>18073000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>16088000</v>
-      </c>
       <c r="H17" s="3">
+        <v>18074000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>16089000</v>
+      </c>
+      <c r="J17" s="3">
         <v>16846000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>16732000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>16785000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>15964000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4434000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2996000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2776000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1136000</v>
       </c>
-      <c r="F18" s="3">
-        <v>4469000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3065000</v>
-      </c>
       <c r="H18" s="3">
+        <v>4468000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3064000</v>
+      </c>
+      <c r="J18" s="3">
         <v>2443000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1423000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4985000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3262000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1001,8 +1100,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I20" s="3">
         <v>1000</v>
@@ -1030,37 +1131,49 @@
       <c r="K20" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>5546000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4134000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3892000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2250000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>5618000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>4241000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3560000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2523000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>6112000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4390000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1088,66 +1201,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>4434000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2996000</v>
+      </c>
+      <c r="F23" s="3">
         <v>2776000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1136000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4469000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3065000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2443000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1424000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4985000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3263000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>537000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>304000</v>
+      </c>
+      <c r="F24" s="3">
         <v>387000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-647000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>47000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>339000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>111000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-329000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>480000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>409000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1175,66 +1306,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3897000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2692000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2389000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1783000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4422000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2726000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2332000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1753000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4505000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3897000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2692000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2389000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1782000</v>
       </c>
-      <c r="F27" s="3">
-        <v>4423000</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>4424000</v>
+      </c>
+      <c r="I27" s="3">
         <v>2726000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2332000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1753000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4506000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1262,37 +1411,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-1946000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F29" s="3">
         <v>15000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-103000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>-5477000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-3000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-5000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1320,8 +1481,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,8 +1516,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1367,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="I32" s="3">
         <v>-1000</v>
@@ -1378,37 +1551,49 @@
       <c r="K32" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1951000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2694000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2404000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1679000</v>
       </c>
-      <c r="F33" s="3">
-        <v>-1054000</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-1053000</v>
+      </c>
+      <c r="I33" s="3">
         <v>2726000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2331000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1750000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4501000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2853000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1436,71 +1621,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1951000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2694000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2404000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1679000</v>
       </c>
-      <c r="F35" s="3">
-        <v>-1054000</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-1053000</v>
+      </c>
+      <c r="I35" s="3">
         <v>2726000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2331000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1750000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4501000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2853000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1512,8 +1715,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1525,269 +1730,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>11379000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11563000</v>
+      </c>
+      <c r="F41" s="3">
         <v>10741000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11949000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11972000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>10915000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11696000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>10096000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7826000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9039000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>620000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2944000</v>
+      </c>
+      <c r="F42" s="3">
         <v>967000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>895000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>620000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>623000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>601000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>605000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>712000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>931000</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>30563000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>27087000</v>
+      </c>
+      <c r="F43" s="3">
         <v>28340000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>29229000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>31630000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>27126000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>26958000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>25869000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>29245000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>25196000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1682000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1893000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1742000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1753000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1583000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1711000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1604000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1609000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1553000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1729000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>4902000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4770000</v>
+      </c>
+      <c r="F45" s="3">
         <v>5005000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5296000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3930000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4367000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4154000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4710000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4552000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4538000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>49146000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>48257000</v>
+      </c>
+      <c r="F46" s="3">
         <v>46795000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>49122000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>49735000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>44742000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>45013000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>42889000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>43888000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>41433000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>11187000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>10451000</v>
+      </c>
+      <c r="F47" s="3">
         <v>11301000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>11798000</v>
       </c>
-      <c r="F47" s="3">
-        <v>13712000</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
+        <v>11576000</v>
+      </c>
+      <c r="I47" s="3">
         <v>13265000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>13055000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>13051000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>12457000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>13043000</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>10792000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10949000</v>
+      </c>
+      <c r="F48" s="3">
         <v>11024000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>11278000</v>
       </c>
-      <c r="F48" s="3">
-        <v>11116000</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>22232000</v>
+      </c>
+      <c r="I48" s="3">
         <v>11057000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>10903000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>10865000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10830000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>11104000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>39352000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>39660000</v>
+      </c>
+      <c r="F49" s="3">
         <v>39826000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>40253000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>40530000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>40763000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>40696000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>40743000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>40887000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>41282000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1815,8 +2076,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1844,37 +2111,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>12905000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>12673000</v>
+      </c>
+      <c r="F52" s="3">
         <v>12676000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>12834000</v>
       </c>
-      <c r="F52" s="3">
-        <v>10263000</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
+        <v>12399000</v>
+      </c>
+      <c r="I52" s="3">
         <v>11809000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>10828000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>9947000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>9408000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8744000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1902,37 +2181,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>123382000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>121990000</v>
+      </c>
+      <c r="F54" s="3">
         <v>121622000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>125285000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>125356000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>121636000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>120495000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>117495000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>117470000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>115606000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1944,8 +2235,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1957,182 +2250,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>6558000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5384000</v>
+      </c>
+      <c r="F57" s="3">
         <v>5518000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5736000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6451000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5442000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5126000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5324000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6209000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5271000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>10207000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10932000</v>
+      </c>
+      <c r="F58" s="3">
         <v>7646000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5977000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6987000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4299000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>8061000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>8340000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7513000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6920000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>21462000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20506000</v>
+      </c>
+      <c r="F59" s="3">
         <v>22278000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>24020000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>23925000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>21956000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>22779000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>22817000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>22553000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>22256000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>38227000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>36822000</v>
+      </c>
+      <c r="F60" s="3">
         <v>35442000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>35733000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>37363000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>31697000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>35966000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>36481000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>36275000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>34447000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>35605000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>35989000</v>
+      </c>
+      <c r="F61" s="3">
         <v>37851000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>40410000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>39837000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>41327000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>37612000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>34441000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>34655000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>35563000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>32621000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>29261000</v>
+      </c>
+      <c r="F62" s="3">
         <v>29681000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>30852000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>30431000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>28855000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>28373000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>28125000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>28148000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>28437000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2160,8 +2491,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2189,8 +2526,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,37 +2561,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>106587000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>102206000</v>
+      </c>
+      <c r="F66" s="3">
         <v>103102000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>107119000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>107762000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>102009000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>102076000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>99168000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>99224000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>98596000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2260,8 +2615,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2289,8 +2646,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2318,8 +2681,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2347,8 +2716,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2376,37 +2751,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>159206000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>158612000</v>
+      </c>
+      <c r="F72" s="3">
         <v>157349000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>156371000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>153126000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>155565000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>154234000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>153292000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>152759000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>149585000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2434,8 +2821,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2463,8 +2856,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2492,37 +2891,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>16795000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>19784000</v>
+      </c>
+      <c r="F76" s="3">
         <v>18520000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>18166000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>17594000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>19627000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>18419000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>18327000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>18246000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>17010000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2550,71 +2961,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1951000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2694000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2404000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1679000</v>
       </c>
-      <c r="F81" s="3">
-        <v>-1054000</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-1053000</v>
+      </c>
+      <c r="I81" s="3">
         <v>2726000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2331000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1750000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4501000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2853000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2626,37 +3055,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>1112000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1138000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1116000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1114000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1149000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1176000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1117000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1099000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1127000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1127000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2684,8 +3121,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2713,8 +3156,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2742,8 +3191,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2771,8 +3226,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2800,37 +3261,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>4119000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4231000</v>
+      </c>
+      <c r="F89" s="3">
         <v>2296000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>4601000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>5732000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3570000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>3467000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3954000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3783000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4213000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2842,37 +3315,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1080000</v>
+        <v>-782000</v>
       </c>
       <c r="E91" s="3">
-        <v>-996000</v>
+        <v>-812000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1089000</v>
+        <v>-931000</v>
       </c>
       <c r="G91" s="3">
-        <v>722000</v>
+        <v>-870000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1652000</v>
+        <v>-956000</v>
       </c>
       <c r="I91" s="3">
+        <v>-848000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-685000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1754000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2230000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1828000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2900,8 +3381,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2929,37 +3416,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2969000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-635000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1764000</v>
       </c>
-      <c r="F94" s="3">
-        <v>-3818000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1923000</v>
-      </c>
       <c r="H94" s="3">
+        <v>-3810000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1916000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1705000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>350000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3687000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-951000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2971,37 +3470,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-1416000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1431000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1437000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1382000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1387000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1395000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-1403000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-1321000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1329000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1337000</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3029,8 +3536,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3058,8 +3571,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3087,91 +3606,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-4605000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-436000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2519000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-2909000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-919000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2756000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-609000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-2134000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1287000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-4182000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-444000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>62000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>328000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>447000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-206000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>771000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1302000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>28000</v>
       </c>
-      <c r="F102" s="3">
-        <v>1057000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-781000</v>
-      </c>
       <c r="H102" s="3">
+        <v>1065000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-774000</v>
+      </c>
+      <c r="J102" s="3">
         <v>1600000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2270000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1212000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-978000</v>
       </c>
     </row>

--- a/Financials/Quarterly/IBM_QTR_FIN.xlsx
+++ b/Financials/Quarterly/IBM_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD612DA3-9EC7-4B25-ABB6-0BD3E7FEA20A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="IBM" sheetId="6" r:id="rId1"/>
@@ -301,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,172 +651,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18028000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>19161000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>18182000</v>
+      </c>
+      <c r="G8" s="3">
         <v>21761000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>18756000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>20003000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>19072000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>22542000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>19153000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>19289000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>18155000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>21770000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>19226000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9692000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10151000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10139000</v>
+      </c>
+      <c r="G9" s="3">
         <v>11073000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>9953000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>10804000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>10825000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>11492000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>10172000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>10320000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>10210000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>10876000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>10213000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8336000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9010000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8043000</v>
+      </c>
+      <c r="G10" s="3">
         <v>10688000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>8803000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>9199000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>8247000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>11050000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>8981000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>8969000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>7945000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>10894000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>9013000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,43 +866,55 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1553000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1407000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1433000</v>
+      </c>
+      <c r="G12" s="3">
         <v>1358000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>1252000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <v>1364000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>1405000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>1378000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>1291000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>1436000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>1484000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>1431000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>1397000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,78 +948,105 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>495000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G14" s="3">
         <v>8000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
         <v>26000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>23000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>540000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>11000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>17000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>167000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>95000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>97000</v>
+      </c>
+      <c r="G15" s="3">
         <v>106000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="3">
         <v>110000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <v>109000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="J15" s="3">
         <v>110000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="K15" s="3">
         <v>114000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>125000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>127000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>130000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>132000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>136000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,78 +1057,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>16505000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16393000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>16299000</v>
+      </c>
+      <c r="G17" s="3">
         <v>17327000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>15760000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>17227000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>17936000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>18074000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>16089000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>16846000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>16732000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>16785000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>15964000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1523000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2768000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1883000</v>
+      </c>
+      <c r="G18" s="3">
         <v>4434000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>2996000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>2776000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>1136000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>4468000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>3064000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>2443000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>1423000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>4985000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>3262000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1102,13 +1163,16 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1120,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1132,48 +1196,66 @@
         <v>1000</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3191000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4062000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3329000</v>
+      </c>
+      <c r="G21" s="3">
         <v>5546000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>4134000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>3892000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>2250000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>5618000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>4241000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>3560000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>2523000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>6112000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>4390000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1207,78 +1289,105 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2768000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1883000</v>
+      </c>
+      <c r="G23" s="3">
         <v>4434000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>2996000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>2776000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>1136000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>4469000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>3065000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>2443000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>1424000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>4985000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>3263000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-156000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>255000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>148000</v>
+      </c>
+      <c r="G24" s="3">
         <v>537000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="H24" s="3">
         <v>304000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>387000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>-647000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>47000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>339000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>111000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>-329000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>480000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>409000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1312,78 +1421,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1678000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2513000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1735000</v>
+      </c>
+      <c r="G26" s="3">
         <v>3897000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>2692000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>2389000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>1783000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>4422000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>2726000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>2332000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>1753000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>4505000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1678000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2513000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1734000</v>
+      </c>
+      <c r="G27" s="3">
         <v>3897000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>2692000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>2389000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>1782000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>4424000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>2726000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>2332000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>1753000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>4506000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1417,43 +1553,61 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1946000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="H29" s="3">
         <v>2000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="I29" s="3">
         <v>15000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="J29" s="3">
         <v>-103000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="K29" s="3">
         <v>-5477000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-3000</v>
-      </c>
       <c r="L29" s="3">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="O29" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="P29" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1641,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1522,13 +1685,22 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1540,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1552,48 +1724,66 @@
         <v>-1000</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1672000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1591000</v>
+      </c>
+      <c r="G33" s="3">
         <v>1951000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>2694000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>2404000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>1679000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-1053000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>2726000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>2331000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>1750000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>4501000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>2853000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1627,83 +1817,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1672000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1591000</v>
+      </c>
+      <c r="G35" s="3">
         <v>1951000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>2694000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>2404000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>1679000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-1053000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>2726000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>2331000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>1750000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>4501000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>2853000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1717,8 +1934,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1732,323 +1952,407 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>10087000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>45399000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>17134000</v>
+      </c>
+      <c r="G41" s="3">
         <v>11379000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>11563000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>10741000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>11949000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>11972000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>10915000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>11696000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>10096000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>7826000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>9039000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>739000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>882000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>882000</v>
+      </c>
+      <c r="G42" s="3">
         <v>620000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="H42" s="3">
         <v>2944000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="I42" s="3">
         <v>967000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="J42" s="3">
         <v>895000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="K42" s="3">
         <v>620000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>623000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>601000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>605000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>712000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>931000</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>20959000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>24738000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>27945000</v>
+      </c>
+      <c r="G43" s="3">
         <v>30563000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>27087000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>28340000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>29229000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>31630000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>27126000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>26958000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>25869000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>29245000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>25196000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1712000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1745000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1771000</v>
+      </c>
+      <c r="G44" s="3">
         <v>1682000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="H44" s="3">
         <v>1893000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
         <v>1742000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
         <v>1753000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>1583000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>1711000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>1604000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>1609000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>1553000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>1729000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>4624000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4753000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4973000</v>
+      </c>
+      <c r="G45" s="3">
         <v>4902000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>4770000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>5005000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>5296000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>3930000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>4367000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>4154000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>4710000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>4552000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>4538000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>38121000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>77517000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>52705000</v>
+      </c>
+      <c r="G46" s="3">
         <v>49146000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>48257000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>46795000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>49122000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>49735000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>44742000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>45013000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>42889000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>43888000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>41433000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>9960000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>10669000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>10764000</v>
+      </c>
+      <c r="G47" s="3">
         <v>11187000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>10451000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>11301000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>11798000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>11576000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>13265000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>13055000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>13051000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>12457000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>13043000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>14964000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>15200000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>15309000</v>
+      </c>
+      <c r="G48" s="3">
         <v>10792000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>10949000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>11024000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>11278000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>22232000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>11057000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>10903000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>10865000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>10830000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>11104000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>73564000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>38012000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>39237000</v>
+      </c>
+      <c r="G49" s="3">
         <v>39352000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>39660000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>39826000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>40253000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>40530000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>40763000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>40696000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>40743000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>40887000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>41282000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2082,8 +2386,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2117,43 +2430,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>13011000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>13254000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>12911000</v>
+      </c>
+      <c r="G52" s="3">
         <v>12905000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>12673000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>12676000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>12834000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>12399000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>11809000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>10828000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>9947000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>9408000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>8744000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2187,43 +2518,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>149620000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>154652000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>130926000</v>
+      </c>
+      <c r="G54" s="3">
         <v>123382000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>121990000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>121622000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>125285000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>125356000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>121636000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>120495000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>117495000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>117470000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>115606000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2237,8 +2586,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,218 +2604,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>4042000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4724000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5711000</v>
+      </c>
+      <c r="G57" s="3">
         <v>6558000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>5384000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>5518000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>5736000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>6451000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>5442000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>5126000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>5324000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>6209000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>5271000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>8530000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>14594000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>10250000</v>
+      </c>
+      <c r="G58" s="3">
         <v>10207000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>10932000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>7646000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>5977000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>6987000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>4299000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>8061000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>8340000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>7513000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>6920000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>22494000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>23033000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>22910000</v>
+      </c>
+      <c r="G59" s="3">
         <v>21462000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>20506000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>22278000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>24020000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>23925000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>21956000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>22779000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>22817000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>22553000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>22256000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>35066000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>42351000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>38871000</v>
+      </c>
+      <c r="G60" s="3">
         <v>38227000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>36822000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>35442000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>35733000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>37363000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>31697000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>35966000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>36481000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>36275000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>34447000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>57797000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>58445000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>39727000</v>
+      </c>
+      <c r="G61" s="3">
         <v>35605000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>35989000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>37851000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>40410000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>39837000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>41327000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>37612000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>34441000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>34655000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>35563000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>38661000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>36080000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>35721000</v>
+      </c>
+      <c r="G62" s="3">
         <v>32621000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>29261000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>29681000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>30852000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>30431000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>28855000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>28373000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>28125000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>28148000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>28437000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2497,8 +2906,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2532,8 +2950,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2567,43 +2994,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>131663000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>137007000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>114445000</v>
+      </c>
+      <c r="G66" s="3">
         <v>106587000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>102206000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>103102000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>107119000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>107762000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>102009000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>102076000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>99168000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>99224000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>98596000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2617,8 +3062,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2652,8 +3100,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2687,8 +3144,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2722,8 +3188,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2757,43 +3232,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>160709000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>160467000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>159396000</v>
+      </c>
+      <c r="G72" s="3">
         <v>159206000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>158612000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>157349000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>156371000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>153126000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>155565000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>154234000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>153292000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>152759000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>149585000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2827,8 +3320,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2862,8 +3364,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,43 +3408,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>17957000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>17645000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>16481000</v>
+      </c>
+      <c r="G76" s="3">
         <v>16795000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>19784000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>18520000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>18166000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>17594000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>19627000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>18419000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>18327000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>18246000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>17010000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2967,83 +3496,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1672000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1591000</v>
+      </c>
+      <c r="G81" s="3">
         <v>1951000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>2694000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>2404000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>1679000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-1053000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>2726000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>2331000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>1750000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>4501000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>2853000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3057,43 +3613,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>1669000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1294000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1446000</v>
+      </c>
+      <c r="G83" s="3">
         <v>1112000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>1138000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>1116000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>1114000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>1149000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>1176000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>1117000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>1099000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>1127000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>1127000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3127,8 +3695,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3162,8 +3739,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3197,8 +3783,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3232,8 +3827,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3267,43 +3871,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2940000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>4760000</v>
+      </c>
+      <c r="G89" s="3">
         <v>4119000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>4231000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>2296000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>4601000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>5732000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>3570000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>3467000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>3954000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>3783000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>4213000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3317,43 +3939,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-588000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-583000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-539000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-782000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-812000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-931000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-870000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-956000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-848000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-685000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-1754000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-2230000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-1828000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3387,8 +4021,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3422,43 +4065,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-30373000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>4162000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-853000</v>
+      </c>
+      <c r="G94" s="3">
         <v>455000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-2969000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-635000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-1764000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-3810000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-1916000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-1705000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>350000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-3687000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-951000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3472,43 +4133,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-1436000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1436000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-1397000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1416000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="H96" s="3">
         <v>-1431000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="I96" s="3">
         <v>-1437000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="J96" s="3">
         <v>-1382000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="K96" s="3">
         <v>-1387000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
         <v>-1395000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
         <v>-1403000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
         <v>-1321000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-1329000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>-1337000</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3542,8 +4215,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3577,8 +4259,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3612,109 +4303,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-8177000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>21031000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1863000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-4605000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>-436000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>-2519000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-2909000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>-919000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-2756000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-609000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-2134000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-1287000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-4182000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-379000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>129000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-96000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="H101" s="3">
         <v>-55000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="I101" s="3">
         <v>-444000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="J101" s="3">
         <v>100000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="K101" s="3">
         <v>62000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>328000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>447000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>100000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>-206000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-35309000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>28262000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>5668000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-127000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>771000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-1302000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>28000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>1065000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-774000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>1600000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>2270000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-1212000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-978000</v>
       </c>
     </row>
